--- a/biology/Zoologie/Johann_Nepomuk_Cosmas_Michael_Denis/Johann_Nepomuk_Cosmas_Michael_Denis.xlsx
+++ b/biology/Zoologie/Johann_Nepomuk_Cosmas_Michael_Denis/Johann_Nepomuk_Cosmas_Michael_Denis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Nepomuk Cosmas Michael Denis dit Michael Denis ou Sined der Barde (Michael le barde) est un bibliographe, un poète et un entomologiste autrichien, né le 27 septembre 1729 à Schärding en Bavière et mort le 29 septembre 1800 à Vienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie au gymnasium de Passau, établissement dirigé par des jésuites. Il entre dans la Compagnie de Jésus en 1747. Il commence par enseigner le latin et la rhétorique d’abord à Graz puis à Klagenfurt. Après quatre années d'études de la théologie à Graz, il est ordonné prêtre en 1757 et commence à prêcher à Pressburg.
 En 1759, il est nommé professeur de belles-lettres à la très réputée Académie Theresianum de Vienne où il demeure jusqu’en 1773, date à laquelle la Compagnie est dissoute. Il devient alors bibliothécaire à la bibliothèque Garelli, conjointe de l’Académie. Lorsque celle-ci disparaît en 1784, il obtient un poste de bibliothécaire-assistant à la bibliothèque de l’Empereur et en 1791, de bibliothécaire en chef.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Poetische Bilder der meisten kriegerischen Vorgänge in Europa seit dem Jahr 1756, Vienne 1760
 Die Gedichte Ossians, eines alten celtischen Dichters, aus dem Englischen übersetzt, Vienne 1768-69
